--- a/biology/Botanique/Johann_Heinrich_Keller_(1627-1708)/Johann_Heinrich_Keller_(1627-1708).xlsx
+++ b/biology/Botanique/Johann_Heinrich_Keller_(1627-1708)/Johann_Heinrich_Keller_(1627-1708).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Keller, baptisé le 4 mars 1627 à Bâle, et mort le 4 novembre 1708 à Bâle, est un ébéniste.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Heinrich Keller, baptisé le 4 mars 1627 à Bâle, est le fils de Melchior et de Christina Mohrhauser[1]. Il suit un apprentissage d'ébéniste à Bâle[1].
-Il se marie en 1658 avec Ursula Ryff[2].
-Il meurt le 4 novembre 1708 à Bâle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Heinrich Keller, baptisé le 4 mars 1627 à Bâle, est le fils de Melchior et de Christina Mohrhauser. Il suit un apprentissage d'ébéniste à Bâle.
+Il se marie en 1658 avec Ursula Ryff.
+Il meurt le 4 novembre 1708 à Bâle.
 </t>
         </is>
       </c>
